--- a/data/cepea-consulta-etanol-diario-bovespa.reparado.xlsx
+++ b/data/cepea-consulta-etanol-diario-bovespa.reparado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filipe.guidastri\Documents\Projetos\acompanhamento-cotacao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17274E68-D705-48D6-8554-C58B30C6FC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C373C0F-76C6-4877-9D6E-EA20CE95A18B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="1172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="1189">
   <si>
     <t>Etanol | Indicador Diário do Etanol Hidratado ESALQ/BM&amp;FBovespa Posto Paulínia (SP)</t>
   </si>
@@ -3549,6 +3549,57 @@
   </si>
   <si>
     <t>524,4200</t>
+  </si>
+  <si>
+    <t>29/08/2025</t>
+  </si>
+  <si>
+    <t>2.861,5000</t>
+  </si>
+  <si>
+    <t>527,9500</t>
+  </si>
+  <si>
+    <t>01/09/2025</t>
+  </si>
+  <si>
+    <t>529,6600</t>
+  </si>
+  <si>
+    <t>02/09/2025</t>
+  </si>
+  <si>
+    <t>2.883,5000</t>
+  </si>
+  <si>
+    <t>526,6700</t>
+  </si>
+  <si>
+    <t>03/09/2025</t>
+  </si>
+  <si>
+    <t>2.887,0000</t>
+  </si>
+  <si>
+    <t>528,9500</t>
+  </si>
+  <si>
+    <t>04/09/2025</t>
+  </si>
+  <si>
+    <t>2.877,5000</t>
+  </si>
+  <si>
+    <t>528,3700</t>
+  </si>
+  <si>
+    <t>05/09/2025</t>
+  </si>
+  <si>
+    <t>2.873,5000</t>
+  </si>
+  <si>
+    <t>530,8500</t>
   </si>
 </sst>
 </file>
@@ -4000,10 +4051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J420"/>
+  <dimension ref="A1:J426"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A420" sqref="A420:C420"/>
+      <selection activeCell="A426" sqref="A426:C426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8644,6 +8695,72 @@
       </c>
       <c r="C420" s="3" t="s">
         <v>1171</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421" s="3" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A424" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A425" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A426" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>1188</v>
       </c>
     </row>
   </sheetData>

--- a/data/cepea-consulta-etanol-diario-bovespa.reparado.xlsx
+++ b/data/cepea-consulta-etanol-diario-bovespa.reparado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filipe.guidastri\Documents\Projetos\acompanhamento-cotacao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{025DBD91-7D82-4A66-B88D-457D03F66DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB6EBC2A-F4EF-4F87-AEAB-DFACFDF162E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="1201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="1214">
   <si>
     <t>Etanol | Indicador Diário do Etanol Hidratado ESALQ/BM&amp;FBovespa Posto Paulínia (SP)</t>
   </si>
@@ -3636,6 +3636,45 @@
   </si>
   <si>
     <t>531,3700</t>
+  </si>
+  <si>
+    <t>15/09/2025</t>
+  </si>
+  <si>
+    <t>537,4200</t>
+  </si>
+  <si>
+    <t>16/09/2025</t>
+  </si>
+  <si>
+    <t>536,7100</t>
+  </si>
+  <si>
+    <t>17/09/2025</t>
+  </si>
+  <si>
+    <t>2.840,5000</t>
+  </si>
+  <si>
+    <t>536,0400</t>
+  </si>
+  <si>
+    <t>18/09/2025</t>
+  </si>
+  <si>
+    <t>2.848,0000</t>
+  </si>
+  <si>
+    <t>536,3500</t>
+  </si>
+  <si>
+    <t>19/09/2025</t>
+  </si>
+  <si>
+    <t>2.833,0000</t>
+  </si>
+  <si>
+    <t>532,5200</t>
   </si>
 </sst>
 </file>
@@ -4087,10 +4126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J431"/>
+  <dimension ref="A1:J436"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A431" sqref="A431:C431"/>
+      <selection activeCell="A436" sqref="A436:C436"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8852,6 +8891,61 @@
       </c>
       <c r="C431" s="3" t="s">
         <v>1200</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A434" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>1213</v>
       </c>
     </row>
   </sheetData>

--- a/data/cepea-consulta-etanol-diario-bovespa.reparado.xlsx
+++ b/data/cepea-consulta-etanol-diario-bovespa.reparado.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filipe.guidastri\Documents\Projetos\acompanhamento-cotacao\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{285F5652-2017-4D0C-AE33-CBC4AF343608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78C38149-7530-43BC-83A4-C2F44F3A201F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964"/>
   </bookViews>
